--- a/Exo/Data_SEM/sample.xlsx
+++ b/Exo/Data_SEM/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colin/Travail/Enseignements/R/Exo/Data_SEM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAB8A9D-B247-0243-8716-6EBDDD2A3AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65EB48F-9D6F-2B48-AB30-595B98FAD06D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -398,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -434,7 +434,7 @@
         <v>13</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -462,7 +462,7 @@
         <v>13</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
